--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC5196B-2117-3F41-8AD8-7501E531AE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835135F3-7612-5F4A-91EA-9462BFDDC9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prod Plan" sheetId="3" r:id="rId1"/>
+    <sheet name="Plan" sheetId="3" r:id="rId1"/>
     <sheet name="Reference" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -26,7 +26,7 @@
     <definedName name="VMix">Reference!$A:$E</definedName>
     <definedName name="VMixMediaType">Reference!$C:$C</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="autoNoTable" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="259">
   <si>
     <t>Title</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <t>Overlay 2</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Merge</t>
   </si>
 </sst>
 </file>
@@ -1327,10 +1333,10 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1400,7 +1406,7 @@
         <v>243</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="5" t="s">
@@ -1602,7 +1608,7 @@
         <v>243</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="5" t="s">

--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835135F3-7612-5F4A-91EA-9462BFDDC9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F37CD-B487-D44A-A97A-124FB2304EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -839,10 +839,10 @@
     <t>Overlay 2</t>
   </si>
   <si>
-    <t>Display</t>
-  </si>
-  <si>
     <t>Merge</t>
+  </si>
+  <si>
+    <t>SetImage</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1333,10 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1405,8 +1405,8 @@
       <c r="C2" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>257</v>
+      <c r="D2" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="5" t="s">
@@ -1608,7 +1608,7 @@
         <v>243</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="5" t="s">

--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F37CD-B487-D44A-A97A-124FB2304EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D28B77-04A6-1F41-90F0-31D29AFC12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -821,9 +821,6 @@
     <t>Skip</t>
   </si>
   <si>
-    <t>Quick Play</t>
-  </si>
-  <si>
     <t>10 sec fast</t>
   </si>
   <si>
@@ -836,13 +833,16 @@
     <t>Warning</t>
   </si>
   <si>
-    <t>Overlay 2</t>
-  </si>
-  <si>
     <t>Merge</t>
   </si>
   <si>
-    <t>SetImage</t>
+    <t>CutDirect</t>
+  </si>
+  <si>
+    <t>QuickPlay</t>
+  </si>
+  <si>
+    <t>OverlayInput2In</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1336,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1359,7 +1359,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>241</v>
@@ -1377,7 +1377,7 @@
         <v>247</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>248</v>
@@ -1402,11 +1402,11 @@
         <f>INDEX(Reference!B:B,MATCH(F2,Reference!$E:$E,0))</f>
         <v>13</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>243</v>
+      <c r="C2" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="5" t="s">
@@ -1608,7 +1608,7 @@
         <v>243</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="5" t="s">
@@ -1969,7 +1969,7 @@
         <v>244</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>137</v>
@@ -2027,7 +2027,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>244</v>
@@ -2181,7 +2181,7 @@
         <v>244</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>8</v>
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>

--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D28B77-04A6-1F41-90F0-31D29AFC12DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927AB3BE-8731-EE43-A1CE-1B6131362417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -3197,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2EE200-2F6B-A74A-A266-8BF3F2F1ADCB}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>

--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927AB3BE-8731-EE43-A1CE-1B6131362417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D53E09A-A052-0D4E-927A-42D9B4F59791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -1332,11 +1332,11 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -3197,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2EE200-2F6B-A74A-A266-8BF3F2F1ADCB}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>

--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D53E09A-A052-0D4E-927A-42D9B4F59791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708BEE1-BC7A-AE44-AFE0-D9950F3E4F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
-    <sheet name="Reference" sheetId="4" r:id="rId2"/>
+    <sheet name="vMixConfig" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="FIlteredMediaNumber">Reference!#REF!</definedName>
-    <definedName name="FilteredMediaType">Reference!#REF!</definedName>
-    <definedName name="FilteredShortName">Reference!$T$1</definedName>
-    <definedName name="mediaNumber">OFFSET(Reference!$B:$B,0,0,COUNTA(Reference!$B:$B),1)</definedName>
-    <definedName name="mediaType">OFFSET(Reference!$C:$C,0,0,COUNTA(Reference!$C:$C),1)</definedName>
-    <definedName name="shortTitle">OFFSET(Reference!$E:$E,0,0,COUNTA(Reference!$E:$E),1)</definedName>
-    <definedName name="VMix">Reference!$A:$E</definedName>
-    <definedName name="VMixMediaType">Reference!$C:$C</definedName>
+    <definedName name="FIlteredMediaNumber">vMixConfig!#REF!</definedName>
+    <definedName name="FilteredMediaType">vMixConfig!#REF!</definedName>
+    <definedName name="FilteredShortName">vMixConfig!$T$1</definedName>
+    <definedName name="mediaNumber">OFFSET(vMixConfig!$B:$B,0,0,COUNTA(vMixConfig!$B:$B),1)</definedName>
+    <definedName name="mediaType">OFFSET(vMixConfig!$C:$C,0,0,COUNTA(vMixConfig!$C:$C),1)</definedName>
+    <definedName name="shortTitle">OFFSET(vMixConfig!$E:$E,0,0,COUNTA(vMixConfig!$E:$E),1)</definedName>
+    <definedName name="VMix">vMixConfig!$A:$E</definedName>
+    <definedName name="VMixMediaType">vMixConfig!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -1332,7 +1332,7 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1399,7 +1399,7 @@
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F2,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F2,vMixConfig!$E:$E,0))</f>
         <v>13</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F2,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F2,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H2" s="27" t="str">
@@ -1430,7 +1430,7 @@
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F3,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F3,vMixConfig!$E:$E,0))</f>
         <v>37</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -1444,7 +1444,7 @@
         <v>199</v>
       </c>
       <c r="G3" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F3,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F3,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H3" s="27" t="str">
@@ -1467,7 +1467,7 @@
     <row r="4" spans="1:14" ht="28">
       <c r="A4" s="10"/>
       <c r="B4" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F4,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F4,vMixConfig!$E:$E,0))</f>
         <v>38</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -1481,7 +1481,7 @@
         <v>203</v>
       </c>
       <c r="G4" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F4,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F4,vMixConfig!$E:$E,0))</f>
         <v>Photos</v>
       </c>
       <c r="H4" s="27" t="str">
@@ -1500,7 +1500,7 @@
     <row r="5" spans="1:14" ht="16">
       <c r="A5" s="10"/>
       <c r="B5" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F5,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F5,vMixConfig!$E:$E,0))</f>
         <v>34</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -1514,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F5,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F5,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H5" s="27" t="str">
@@ -1531,7 +1531,7 @@
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F6,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F6,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C6" s="34" t="s">
@@ -1545,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F6,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F6,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H6" s="27" t="str">
@@ -1566,7 +1566,7 @@
     <row r="7" spans="1:14" ht="28" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F7,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F7,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C7" s="34" t="s">
@@ -1580,7 +1580,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F7,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F7,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H7" s="27" t="str">
@@ -1601,7 +1601,7 @@
     <row r="8" spans="1:14" ht="42">
       <c r="A8" s="12"/>
       <c r="B8" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F8,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F8,vMixConfig!$E:$E,0))</f>
         <v>39</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -1615,7 +1615,7 @@
         <v>205</v>
       </c>
       <c r="G8" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F8,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F8,vMixConfig!$E:$E,0))</f>
         <v>Video</v>
       </c>
       <c r="H8" s="27" t="str">
@@ -1640,7 +1640,7 @@
     <row r="9" spans="1:14" ht="16">
       <c r="A9" s="12"/>
       <c r="B9" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F9,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F9,vMixConfig!$E:$E,0))</f>
         <v>21</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -1654,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F9,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F9,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H9" s="27" t="str">
@@ -1675,7 +1675,7 @@
     <row r="10" spans="1:14" ht="28">
       <c r="A10" s="12"/>
       <c r="B10" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F10,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F10,vMixConfig!$E:$E,0))</f>
         <v>35</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -1689,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F10,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F10,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H10" s="27" t="str">
@@ -1714,7 +1714,7 @@
     <row r="11" spans="1:14" ht="15">
       <c r="A11" s="12"/>
       <c r="B11" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F11,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F11,vMixConfig!$E:$E,0))</f>
         <v>44</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -1728,7 +1728,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F11,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F11,vMixConfig!$E:$E,0))</f>
         <v>VirtualSet</v>
       </c>
       <c r="H11" s="27" t="str">
@@ -1745,7 +1745,7 @@
     <row r="12" spans="1:14" ht="15">
       <c r="A12" s="12"/>
       <c r="B12" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F12,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F12,vMixConfig!$E:$E,0))</f>
         <v>33</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -1759,7 +1759,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F12,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F12,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H12" s="27" t="str">
@@ -1780,7 +1780,7 @@
     <row r="13" spans="1:14" ht="42">
       <c r="A13" s="12"/>
       <c r="B13" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F13,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F13,vMixConfig!$E:$E,0))</f>
         <v>41</v>
       </c>
       <c r="C13" s="34" t="s">
@@ -1794,7 +1794,7 @@
         <v>212</v>
       </c>
       <c r="G13" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F13,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F13,vMixConfig!$E:$E,0))</f>
         <v>PowerPoint</v>
       </c>
       <c r="H13" s="27" t="str">
@@ -1819,7 +1819,7 @@
     <row r="14" spans="1:14" ht="16">
       <c r="A14" s="12"/>
       <c r="B14" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F14,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F14,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F14,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F14,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H14" s="27" t="str">
@@ -1850,7 +1850,7 @@
     <row r="15" spans="1:14" ht="42">
       <c r="A15" s="12"/>
       <c r="B15" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F15,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F15,vMixConfig!$E:$E,0))</f>
         <v>42</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -1864,7 +1864,7 @@
         <v>215</v>
       </c>
       <c r="G15" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F15,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F15,vMixConfig!$E:$E,0))</f>
         <v>PowerPoint</v>
       </c>
       <c r="H15" s="27" t="str">
@@ -1889,7 +1889,7 @@
     <row r="16" spans="1:14" ht="15">
       <c r="A16" s="12"/>
       <c r="B16" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F16,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F16,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -1903,7 +1903,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F16,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F16,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H16" s="27" t="str">
@@ -1920,7 +1920,7 @@
     <row r="17" spans="1:14" ht="28">
       <c r="A17" s="12"/>
       <c r="B17" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F17,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F17,vMixConfig!$E:$E,0))</f>
         <v>45</v>
       </c>
       <c r="C17" s="34" t="s">
@@ -1934,7 +1934,7 @@
         <v>221</v>
       </c>
       <c r="G17" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F17,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F17,vMixConfig!$E:$E,0))</f>
         <v>PowerPoint</v>
       </c>
       <c r="H17" s="27" t="str">
@@ -1959,7 +1959,7 @@
     <row r="18" spans="1:14" s="31" customFormat="1" ht="28">
       <c r="A18" s="12"/>
       <c r="B18" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F18,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F18,vMixConfig!$E:$E,0))</f>
         <v>14</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -1975,7 +1975,7 @@
         <v>137</v>
       </c>
       <c r="G18" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F18,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F18,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H18" s="27" t="str">
@@ -1992,7 +1992,7 @@
     <row r="19" spans="1:14" ht="28">
       <c r="A19" s="12"/>
       <c r="B19" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F19,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F19,vMixConfig!$E:$E,0))</f>
         <v>30</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -2006,7 +2006,7 @@
         <v>181</v>
       </c>
       <c r="G19" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F19,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F19,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H19" s="27" t="str">
@@ -2023,7 +2023,7 @@
     <row r="20" spans="1:14" ht="42">
       <c r="A20" s="12"/>
       <c r="B20" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F20,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F20,vMixConfig!$E:$E,0))</f>
         <v>43</v>
       </c>
       <c r="C20" s="37" t="s">
@@ -2037,7 +2037,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F20,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F20,vMixConfig!$E:$E,0))</f>
         <v>Colour</v>
       </c>
       <c r="H20" s="27" t="str">
@@ -2060,7 +2060,7 @@
     <row r="21" spans="1:14" ht="28">
       <c r="A21" s="12"/>
       <c r="B21" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F21,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F21,vMixConfig!$E:$E,0))</f>
         <v>14</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -2074,7 +2074,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F21,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F21,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H21" s="27" t="str">
@@ -2099,7 +2099,7 @@
     <row r="22" spans="1:14" ht="28">
       <c r="A22" s="12"/>
       <c r="B22" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F22,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F22,vMixConfig!$E:$E,0))</f>
         <v>33</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -2113,7 +2113,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F22,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F22,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H22" s="27" t="str">
@@ -2134,7 +2134,7 @@
     <row r="23" spans="1:14" ht="42">
       <c r="A23" s="12"/>
       <c r="B23" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F23,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F23,vMixConfig!$E:$E,0))</f>
         <v>26</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F23,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F23,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H23" s="27" t="str">
@@ -2171,7 +2171,7 @@
     <row r="24" spans="1:14" ht="16">
       <c r="A24" s="12"/>
       <c r="B24" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F24,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F24,vMixConfig!$E:$E,0))</f>
         <v>34</v>
       </c>
       <c r="C24" s="34" t="s">
@@ -2187,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F24,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F24,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H24" s="27" t="str">
@@ -2204,7 +2204,7 @@
     <row r="25" spans="1:14" ht="16">
       <c r="A25" s="12"/>
       <c r="B25" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F25,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F25,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -2218,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F25,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F25,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H25" s="27" t="str">
@@ -2239,7 +2239,7 @@
     <row r="26" spans="1:14" ht="28" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F26,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F26,vMixConfig!$E:$E,0))</f>
         <v>46</v>
       </c>
       <c r="C26" s="37" t="s">
@@ -2251,7 +2251,7 @@
         <v>224</v>
       </c>
       <c r="G26" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F26,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F26,vMixConfig!$E:$E,0))</f>
         <v>GT</v>
       </c>
       <c r="H26" s="27" t="str">
@@ -2270,7 +2270,7 @@
     <row r="27" spans="1:14" ht="28">
       <c r="A27" s="12"/>
       <c r="B27" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F27,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F27,vMixConfig!$E:$E,0))</f>
         <v>37</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -2284,7 +2284,7 @@
         <v>199</v>
       </c>
       <c r="G27" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F27,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F27,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H27" s="27" t="str">
@@ -2307,7 +2307,7 @@
     <row r="28" spans="1:14" ht="15">
       <c r="A28" s="12"/>
       <c r="B28" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F28,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F28,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -2321,7 +2321,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F28,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F28,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H28" s="27" t="str">
@@ -2338,7 +2338,7 @@
     <row r="29" spans="1:14" ht="28">
       <c r="A29" s="12"/>
       <c r="B29" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F29,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F29,vMixConfig!$E:$E,0))</f>
         <v>48</v>
       </c>
       <c r="C29" s="38" t="s">
@@ -2352,7 +2352,7 @@
         <v>231</v>
       </c>
       <c r="G29" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F29,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F29,vMixConfig!$E:$E,0))</f>
         <v>PowerPoint</v>
       </c>
       <c r="H29" s="27" t="str">
@@ -2375,7 +2375,7 @@
     <row r="30" spans="1:14" ht="15">
       <c r="A30" s="12"/>
       <c r="B30" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F30,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F30,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -2389,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F30,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F30,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H30" s="27" t="str">
@@ -2406,7 +2406,7 @@
     <row r="31" spans="1:14" ht="15">
       <c r="A31" s="12"/>
       <c r="B31" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F31,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F31,vMixConfig!$E:$E,0))</f>
         <v>37</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -2420,7 +2420,7 @@
         <v>199</v>
       </c>
       <c r="G31" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F31,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F31,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H31" s="27" t="str">
@@ -2443,7 +2443,7 @@
     <row r="32" spans="1:14" ht="15">
       <c r="A32" s="12"/>
       <c r="B32" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F32,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F32,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -2457,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F32,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F32,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H32" s="27" t="str">
@@ -2474,7 +2474,7 @@
     <row r="33" spans="1:14" ht="28">
       <c r="A33" s="12"/>
       <c r="B33" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F33,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F33,vMixConfig!$E:$E,0))</f>
         <v>49</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -2488,7 +2488,7 @@
         <v>234</v>
       </c>
       <c r="G33" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F33,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F33,vMixConfig!$E:$E,0))</f>
         <v>PowerPoint</v>
       </c>
       <c r="H33" s="27" t="str">
@@ -2511,7 +2511,7 @@
     <row r="34" spans="1:14" ht="15">
       <c r="A34" s="12"/>
       <c r="B34" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F34,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F34,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -2525,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F34,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F34,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H34" s="27" t="str">
@@ -2542,7 +2542,7 @@
     <row r="35" spans="1:14" ht="29">
       <c r="A35" s="12"/>
       <c r="B35" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F35,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F35,vMixConfig!$E:$E,0))</f>
         <v>36</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -2556,7 +2556,7 @@
         <v>196</v>
       </c>
       <c r="G35" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F35,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F35,vMixConfig!$E:$E,0))</f>
         <v>VirtualSet</v>
       </c>
       <c r="H35" s="27" t="str">
@@ -2583,7 +2583,7 @@
     <row r="36" spans="1:14" ht="15">
       <c r="A36" s="12"/>
       <c r="B36" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F36,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F36,vMixConfig!$E:$E,0))</f>
         <v>44</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -2597,7 +2597,7 @@
         <v>65</v>
       </c>
       <c r="G36" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F36,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F36,vMixConfig!$E:$E,0))</f>
         <v>VirtualSet</v>
       </c>
       <c r="H36" s="27" t="str">
@@ -2616,7 +2616,7 @@
     <row r="37" spans="1:14" ht="29">
       <c r="A37" s="12"/>
       <c r="B37" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F37,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F37,vMixConfig!$E:$E,0))</f>
         <v>44</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -2630,7 +2630,7 @@
         <v>25</v>
       </c>
       <c r="G37" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F37,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F37,vMixConfig!$E:$E,0))</f>
         <v>VirtualSet</v>
       </c>
       <c r="H37" s="27" t="str">
@@ -2657,7 +2657,7 @@
     <row r="38" spans="1:14" ht="29">
       <c r="A38" s="12"/>
       <c r="B38" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F38,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F38,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C38" s="34" t="s">
@@ -2671,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F38,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F38,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H38" s="27" t="str">
@@ -2696,7 +2696,7 @@
     <row r="39" spans="1:14" ht="15">
       <c r="A39" s="12"/>
       <c r="B39" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F39,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F39,vMixConfig!$E:$E,0))</f>
         <v>34</v>
       </c>
       <c r="C39" s="34" t="s">
@@ -2710,7 +2710,7 @@
         <v>72</v>
       </c>
       <c r="G39" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F39,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F39,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H39" s="27" t="str">
@@ -2729,7 +2729,7 @@
     <row r="40" spans="1:14" ht="15">
       <c r="A40" s="12"/>
       <c r="B40" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F40,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F40,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C40" s="34" t="s">
@@ -2743,7 +2743,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F40,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F40,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H40" s="27" t="str">
@@ -2762,7 +2762,7 @@
     <row r="41" spans="1:14" ht="42">
       <c r="A41" s="10"/>
       <c r="B41" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F41,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F41,vMixConfig!$E:$E,0))</f>
         <v>50</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -2776,7 +2776,7 @@
         <v>237</v>
       </c>
       <c r="G41" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F41,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F41,vMixConfig!$E:$E,0))</f>
         <v>PowerPoint</v>
       </c>
       <c r="H41" s="27" t="str">
@@ -2801,7 +2801,7 @@
     <row r="42" spans="1:14" ht="28">
       <c r="A42" s="10"/>
       <c r="B42" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F42,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F42,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C42" s="34" t="s">
@@ -2815,7 +2815,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F42,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F42,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H42" s="27" t="str">
@@ -2836,7 +2836,7 @@
     <row r="43" spans="1:14" ht="28">
       <c r="A43" s="10"/>
       <c r="B43" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F43,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F43,vMixConfig!$E:$E,0))</f>
         <v>51</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -2850,7 +2850,7 @@
         <v>240</v>
       </c>
       <c r="G43" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F43,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F43,vMixConfig!$E:$E,0))</f>
         <v>Image</v>
       </c>
       <c r="H43" s="27" t="str">
@@ -2869,7 +2869,7 @@
     <row r="44" spans="1:14" ht="16">
       <c r="A44" s="10"/>
       <c r="B44" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F44,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F44,vMixConfig!$E:$E,0))</f>
         <v>19</v>
       </c>
       <c r="C44" s="34" t="s">
@@ -2883,7 +2883,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F44,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F44,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H44" s="27" t="str">
@@ -2904,7 +2904,7 @@
     <row r="45" spans="1:14" ht="16">
       <c r="A45" s="10"/>
       <c r="B45" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F45,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F45,vMixConfig!$E:$E,0))</f>
         <v>37</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -2918,7 +2918,7 @@
         <v>199</v>
       </c>
       <c r="G45" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F45,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F45,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H45" s="27" t="str">
@@ -2939,7 +2939,7 @@
     <row r="46" spans="1:14" ht="16">
       <c r="A46" s="10"/>
       <c r="B46" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F46,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F46,vMixConfig!$E:$E,0))</f>
         <v>13</v>
       </c>
       <c r="C46" s="34" t="s">
@@ -2953,7 +2953,7 @@
         <v>133</v>
       </c>
       <c r="G46" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F46,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F46,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H46" s="27" t="str">
@@ -2972,7 +2972,7 @@
     <row r="47" spans="1:14" ht="16">
       <c r="A47" s="10"/>
       <c r="B47" s="27">
-        <f>INDEX(Reference!B:B,MATCH(F47,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!B:B,MATCH(F47,vMixConfig!$E:$E,0))</f>
         <v>37</v>
       </c>
       <c r="C47" s="34" t="s">
@@ -2986,7 +2986,7 @@
         <v>199</v>
       </c>
       <c r="G47" s="27" t="str">
-        <f>INDEX(Reference!C:C,MATCH(F47,Reference!$E:$E,0))</f>
+        <f>INDEX(vMixConfig!C:C,MATCH(F47,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H47" s="27" t="str">
@@ -3183,7 +3183,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{064A5871-2883-674A-836C-90AA981EF0DC}">
           <x14:formula1>
-            <xm:f>Reference!$T:$T</xm:f>
+            <xm:f>vMixConfig!$T:$T</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F47</xm:sqref>
         </x14:dataValidation>
@@ -3197,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2EE200-2F6B-A74A-A266-8BF3F2F1ADCB}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>

--- a/data/4-17-22 service plan.xlsx
+++ b/data/4-17-22 service plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtt/Projects/VMIX-Helper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708BEE1-BC7A-AE44-AFE0-D9950F3E4F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51491DE-AD2B-7645-9349-BB702085CD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="259">
   <si>
     <t>Title</t>
   </si>
@@ -1330,13 +1330,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1400,7 +1400,7 @@
       <c r="A2" s="10"/>
       <c r="B2" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F2,vMixConfig!$E:$E,0))</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>256</v>
@@ -1431,7 +1431,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F3,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>243</v>
@@ -1448,7 +1448,7 @@
         <v>Virtual</v>
       </c>
       <c r="H3" s="27" t="str">
-        <f t="shared" ref="H3:H47" si="0">IF(LEFT(F3,1)=LEFT(F4,1),"SAME CAMERA","")</f>
+        <f>IF(LEFT(F3,1)=LEFT(F5,1),"SAME CAMERA","")</f>
         <v/>
       </c>
       <c r="I3" s="6" t="s">
@@ -1464,44 +1464,42 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="28">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:14" s="31" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="12"/>
       <c r="B4" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F4,vMixConfig!$E:$E,0))</f>
-        <v>38</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>244</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="5" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G4" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F4,vMixConfig!$E:$E,0))</f>
-        <v>Photos</v>
+        <v>GT</v>
       </c>
       <c r="H4" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F4,1)=LEFT(F5,1),"SAME CAMERA","")</f>
         <v/>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="16">
+      <c r="I4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="28">
       <c r="A5" s="10"/>
       <c r="B5" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F5,vMixConfig!$E:$E,0))</f>
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>243</v>
@@ -1511,28 +1509,30 @@
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G5" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F5,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>Photos</v>
       </c>
       <c r="H5" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F5,1)=LEFT(F6,1),"SAME CAMERA","")</f>
         <v/>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14" ht="16">
       <c r="A6" s="10"/>
       <c r="B6" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F6,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>243</v>
@@ -1542,32 +1542,28 @@
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F6,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>SAME CAMERA</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="28" customHeight="1">
-      <c r="A7" s="12"/>
+        <f t="shared" ref="H6:H51" si="0">IF(LEFT(F6,1)=LEFT(F7,1),"SAME CAMERA","")</f>
+        <v/>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" s="10"/>
       <c r="B7" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F7,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>243</v>
@@ -1585,98 +1581,98 @@
       </c>
       <c r="H7" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>12</v>
+        <v>SAME CAMERA</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="42">
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="28" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F8,vMixConfig!$E:$E,0))</f>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>243</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="5" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="G8" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F8,vMixConfig!$E:$E,0))</f>
-        <v>Video</v>
+        <v>Virtual</v>
       </c>
       <c r="H8" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="16">
+    <row r="9" spans="1:14" ht="42">
       <c r="A9" s="12"/>
       <c r="B9" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F9,vMixConfig!$E:$E,0))</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>243</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="G9" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F9,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>Video</v>
       </c>
       <c r="H9" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="M9" s="16"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="28">
+    <row r="10" spans="1:14" ht="16">
       <c r="A10" s="12"/>
       <c r="B10" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F10,vMixConfig!$E:$E,0))</f>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>243</v>
@@ -1686,7 +1682,7 @@
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F10,vMixConfig!$E:$E,0))</f>
@@ -1697,25 +1693,21 @@
         <v/>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J10" s="16"/>
       <c r="K10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="15">
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="28">
       <c r="A11" s="12"/>
       <c r="B11" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F11,vMixConfig!$E:$E,0))</f>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>243</v>
@@ -1725,20 +1717,28 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F11,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
+        <v>Virtual</v>
       </c>
       <c r="H11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="I11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="M11" s="16"/>
       <c r="N11" s="8"/>
     </row>
@@ -1746,7 +1746,7 @@
       <c r="A12" s="12"/>
       <c r="B12" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F12,vMixConfig!$E:$E,0))</f>
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>243</v>
@@ -1756,32 +1756,28 @@
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F12,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>VirtualSet</v>
       </c>
       <c r="H12" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="42">
+    <row r="13" spans="1:14" ht="15">
       <c r="A13" s="12"/>
       <c r="B13" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F13,vMixConfig!$E:$E,0))</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>243</v>
@@ -1791,36 +1787,32 @@
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="5" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="G13" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F13,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
+        <v>Virtual</v>
       </c>
       <c r="H13" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J13" s="13"/>
       <c r="K13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="16">
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="42">
       <c r="A14" s="12"/>
       <c r="B14" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F14,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>243</v>
@@ -1830,28 +1822,36 @@
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="5" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="G14" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F14,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>PowerPoint</v>
       </c>
       <c r="H14" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="I14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="42">
+    <row r="15" spans="1:14" ht="16">
       <c r="A15" s="12"/>
       <c r="B15" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F15,vMixConfig!$E:$E,0))</f>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>243</v>
@@ -1861,36 +1861,28 @@
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="5" t="s">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="G15" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F15,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
+        <v>Virtual</v>
       </c>
       <c r="H15" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="15">
+    <row r="16" spans="1:14" ht="42">
       <c r="A16" s="12"/>
       <c r="B16" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F16,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>243</v>
@@ -1900,28 +1892,36 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="5" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="G16" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F16,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>PowerPoint</v>
       </c>
       <c r="H16" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="15"/>
+      <c r="I16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="M16" s="16"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" ht="28">
+      <c r="N16" s="21"/>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" s="12"/>
       <c r="B17" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F17,vMixConfig!$E:$E,0))</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>243</v>
@@ -1931,36 +1931,28 @@
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="5" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="G17" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F17,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
+        <v>Virtual</v>
       </c>
       <c r="H17" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="16"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="31" customFormat="1" ht="28">
+    <row r="18" spans="1:14" ht="28">
       <c r="A18" s="12"/>
       <c r="B18" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F18,vMixConfig!$E:$E,0))</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>243</v>
@@ -1968,49 +1960,57 @@
       <c r="D18" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>252</v>
-      </c>
+      <c r="E18" s="35"/>
       <c r="F18" s="5" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="G18" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F18,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>PowerPoint</v>
       </c>
       <c r="H18" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15"/>
+      <c r="I18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="16"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="28">
+    <row r="19" spans="1:14" s="31" customFormat="1" ht="28">
       <c r="A19" s="12"/>
       <c r="B19" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F19,vMixConfig!$E:$E,0))</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>243</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="35"/>
+        <v>244</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>252</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="G19" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F19,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H19" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F19,1)=LEFT(F21,1),"SAME CAMERA","")</f>
         <v/>
       </c>
       <c r="I19" s="11"/>
@@ -2020,58 +2020,52 @@
       <c r="M19" s="16"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="42">
+    <row r="20" spans="1:14" s="31" customFormat="1" ht="28" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F20,vMixConfig!$E:$E,0))</f>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>244</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="G20" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F20,vMixConfig!$E:$E,0))</f>
-        <v>Colour</v>
+        <v>GT</v>
       </c>
       <c r="H20" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>SAME CAMERA</v>
+        <f>IF(LEFT(F20,1)=LEFT(F21,1),"SAME CAMERA","")</f>
+        <v/>
       </c>
       <c r="I20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="28">
       <c r="A21" s="12"/>
       <c r="B21" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F21,vMixConfig!$E:$E,0))</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>243</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="5" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="G21" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F21,vMixConfig!$E:$E,0))</f>
@@ -2081,98 +2075,86 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="16"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="28">
+    <row r="22" spans="1:14" ht="42">
       <c r="A22" s="12"/>
       <c r="B22" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F22,vMixConfig!$E:$E,0))</f>
-        <v>33</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G22" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F22,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>Colour</v>
       </c>
       <c r="H22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(LEFT(F22,1)=LEFT(F24,1),"SAME CAMERA","")</f>
+        <v>SAME CAMERA</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" ht="42">
+      <c r="M22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" s="31" customFormat="1" ht="28" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F23,vMixConfig!$E:$E,0))</f>
-        <v>26</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>244</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="34"/>
       <c r="E23" s="35"/>
       <c r="F23" s="5" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="G23" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F23,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>GT</v>
       </c>
       <c r="H23" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F23,1)=LEFT(F24,1),"SAME CAMERA","")</f>
         <v/>
       </c>
       <c r="I23" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J23" s="18"/>
-      <c r="K23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="16">
+      <c r="K23" s="16"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" ht="28">
       <c r="A24" s="12"/>
       <c r="B24" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F24,vMixConfig!$E:$E,0))</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>243</v>
@@ -2180,108 +2162,114 @@
       <c r="D24" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>251</v>
-      </c>
+      <c r="E24" s="35"/>
       <c r="F24" s="5" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="G24" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F24,vMixConfig!$E:$E,0))</f>
         <v>Virtual</v>
       </c>
       <c r="H24" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F24,1)=LEFT(F26,1),"SAME CAMERA","")</f>
         <v/>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="15"/>
+      <c r="I24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="1:14" ht="16">
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" s="31" customFormat="1" ht="28" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F25,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>244</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="5" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="G25" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F25,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>GT</v>
       </c>
       <c r="H25" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F25,1)=LEFT(F26,1),"SAME CAMERA","")</f>
         <v/>
       </c>
       <c r="I25" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" s="18"/>
-      <c r="K25" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="K25" s="16"/>
       <c r="L25" s="15"/>
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14" ht="28" customHeight="1">
+    <row r="26" spans="1:14" ht="28">
       <c r="A26" s="12"/>
       <c r="B26" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F26,vMixConfig!$E:$E,0))</f>
-        <v>46</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="39"/>
       <c r="F26" s="5" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="G26" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F26,vMixConfig!$E:$E,0))</f>
-        <v>GT</v>
+        <v>Virtual</v>
       </c>
       <c r="H26" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14" ht="28">
+    <row r="27" spans="1:14" ht="42">
       <c r="A27" s="12"/>
       <c r="B27" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F27,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C27" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="5" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="G27" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F27,vMixConfig!$E:$E,0))</f>
@@ -2292,33 +2280,35 @@
         <v/>
       </c>
       <c r="I27" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="21"/>
-    </row>
-    <row r="28" spans="1:14" ht="15">
+        <v>51</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" ht="16">
       <c r="A28" s="12"/>
       <c r="B28" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F28,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="36" t="s">
+        <v>251</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F28,vMixConfig!$E:$E,0))</f>
@@ -2331,91 +2321,89 @@
       <c r="I28" s="11"/>
       <c r="J28" s="18"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="21"/>
-    </row>
-    <row r="29" spans="1:14" ht="28">
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" ht="16">
       <c r="A29" s="12"/>
       <c r="B29" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F29,vMixConfig!$E:$E,0))</f>
-        <v>48</v>
-      </c>
-      <c r="C29" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="5" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="G29" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F29,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
+        <v>Virtual</v>
       </c>
       <c r="H29" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F29,1)=LEFT(F30,1),"SAME CAMERA","")</f>
         <v/>
       </c>
       <c r="I29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:14" ht="15">
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" ht="28" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F30,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>244</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="34"/>
       <c r="E30" s="35"/>
       <c r="F30" s="5" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="G30" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F30,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>GT</v>
       </c>
       <c r="H30" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(F30,1)=LEFT(F31,1),"SAME CAMERA","")</f>
         <v/>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="21"/>
-    </row>
-    <row r="31" spans="1:14" ht="15">
+      <c r="I30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="1:14" ht="28">
       <c r="A31" s="12"/>
       <c r="B31" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F31,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="5" t="s">
         <v>199</v>
       </c>
@@ -2428,31 +2416,31 @@
         <v/>
       </c>
       <c r="I31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="16"/>
       <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" ht="15">
       <c r="A32" s="12"/>
       <c r="B32" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F32,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
-      </c>
-      <c r="C32" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="35"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2465,27 +2453,27 @@
         <v/>
       </c>
       <c r="I32" s="11"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="19"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" ht="28">
       <c r="A33" s="12"/>
       <c r="B33" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F33,vMixConfig!$E:$E,0))</f>
-        <v>49</v>
-      </c>
-      <c r="C33" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="35"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G33" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F33,vMixConfig!$E:$E,0))</f>
@@ -2496,23 +2484,23 @@
         <v/>
       </c>
       <c r="I33" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" s="16"/>
-      <c r="M33" s="19"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="15">
       <c r="A34" s="12"/>
       <c r="B34" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F34,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>243</v>
@@ -2536,14 +2524,14 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="19"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="21"/>
     </row>
-    <row r="35" spans="1:14" ht="29">
+    <row r="35" spans="1:14" ht="15">
       <c r="A35" s="12"/>
       <c r="B35" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F35,vMixConfig!$E:$E,0))</f>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>243</v>
@@ -2553,11 +2541,11 @@
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G35" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F35,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
+        <v>Virtual</v>
       </c>
       <c r="H35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2566,25 +2554,21 @@
       <c r="I35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="J35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="15">
       <c r="A36" s="12"/>
       <c r="B36" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F36,vMixConfig!$E:$E,0))</f>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>243</v>
@@ -2594,71 +2578,65 @@
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="5" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="G36" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F36,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
+        <v>Virtual</v>
       </c>
       <c r="H36" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>SAME CAMERA</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+        <v/>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:14" ht="29">
+    <row r="37" spans="1:14" ht="28">
       <c r="A37" s="12"/>
       <c r="B37" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F37,vMixConfig!$E:$E,0))</f>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="35" t="s">
-        <v>245</v>
-      </c>
+      <c r="D37" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E37" s="35"/>
       <c r="F37" s="5" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="G37" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F37,vMixConfig!$E:$E,0))</f>
-        <v>VirtualSet</v>
+        <v>PowerPoint</v>
       </c>
       <c r="H37" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>SAME CAMERA</v>
+        <v/>
       </c>
       <c r="I37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="21"/>
     </row>
-    <row r="38" spans="1:14" ht="29">
+    <row r="38" spans="1:14" ht="15">
       <c r="A38" s="12"/>
       <c r="B38" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F38,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>243</v>
@@ -2678,26 +2656,18 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="21"/>
     </row>
-    <row r="39" spans="1:14" ht="15">
+    <row r="39" spans="1:14" ht="29">
       <c r="A39" s="12"/>
       <c r="B39" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F39,vMixConfig!$E:$E,0))</f>
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>243</v>
@@ -2707,30 +2677,38 @@
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="G39" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F39,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>VirtualSet</v>
       </c>
       <c r="H39" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="15">
       <c r="A40" s="12"/>
       <c r="B40" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F40,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>243</v>
@@ -2740,18 +2718,18 @@
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G40" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F40,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>VirtualSet</v>
       </c>
       <c r="H40" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>SAME CAMERA</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -2759,50 +2737,52 @@
       <c r="M40" s="20"/>
       <c r="N40" s="21"/>
     </row>
-    <row r="41" spans="1:14" ht="42">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:14" ht="29">
+      <c r="A41" s="12"/>
       <c r="B41" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F41,vMixConfig!$E:$E,0))</f>
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E41" s="35"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="35" t="s">
+        <v>245</v>
+      </c>
       <c r="F41" s="5" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="G41" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F41,vMixConfig!$E:$E,0))</f>
-        <v>PowerPoint</v>
+        <v>VirtualSet</v>
       </c>
       <c r="H41" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" ht="28">
-      <c r="A42" s="10"/>
+        <v>SAME CAMERA</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:14" ht="29">
+      <c r="A42" s="12"/>
       <c r="B42" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F42,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>243</v>
@@ -2822,55 +2802,59 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="16" t="s">
+      <c r="I42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="1:14" ht="28">
-      <c r="A43" s="10"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:14" ht="15">
+      <c r="A43" s="12"/>
       <c r="B43" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F43,vMixConfig!$E:$E,0))</f>
-        <v>51</v>
-      </c>
-      <c r="C43" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="39"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="5" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="G43" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F43,vMixConfig!$E:$E,0))</f>
-        <v>Image</v>
+        <v>Virtual</v>
       </c>
       <c r="H43" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="22"/>
-    </row>
-    <row r="44" spans="1:14" ht="16">
-      <c r="A44" s="10"/>
+      <c r="I43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="1:14" ht="15">
+      <c r="A44" s="12"/>
       <c r="B44" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F44,vMixConfig!$E:$E,0))</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>243</v>
@@ -2890,22 +2874,20 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="22"/>
-    </row>
-    <row r="45" spans="1:14" ht="16">
+      <c r="I44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
+    </row>
+    <row r="45" spans="1:14" ht="42">
       <c r="A45" s="10"/>
       <c r="B45" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F45,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>243</v>
@@ -2915,32 +2897,36 @@
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="5" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="G45" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F45,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>PowerPoint</v>
       </c>
       <c r="H45" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J45" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="K45" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="22"/>
-    </row>
-    <row r="46" spans="1:14" ht="16">
+        <v>77</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" s="18"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" ht="28">
       <c r="A46" s="10"/>
       <c r="B46" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F46,vMixConfig!$E:$E,0))</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>243</v>
@@ -2950,7 +2936,7 @@
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="5" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="G46" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F46,vMixConfig!$E:$E,0))</f>
@@ -2961,40 +2947,42 @@
         <v/>
       </c>
       <c r="I46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="22"/>
-    </row>
-    <row r="47" spans="1:14" ht="16">
+      <c r="M46" s="18"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" ht="28">
       <c r="A47" s="10"/>
       <c r="B47" s="27">
         <f>INDEX(vMixConfig!B:B,MATCH(F47,vMixConfig!$E:$E,0))</f>
-        <v>37</v>
-      </c>
-      <c r="C47" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="6" t="s">
-        <v>199</v>
+      <c r="E47" s="39"/>
+      <c r="F47" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="G47" s="27" t="str">
         <f>INDEX(vMixConfig!C:C,MATCH(F47,vMixConfig!$E:$E,0))</f>
-        <v>Virtual</v>
+        <v>Image</v>
       </c>
       <c r="H47" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I47" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
@@ -3004,66 +2992,138 @@
     </row>
     <row r="48" spans="1:14" ht="16">
       <c r="A48" s="10"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
+      <c r="B48" s="27">
+        <f>INDEX(vMixConfig!B:B,MATCH(F48,vMixConfig!$E:$E,0))</f>
+        <v>9</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="27" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH(F48,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H48" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
       <c r="N48" s="22"/>
     </row>
     <row r="49" spans="1:14" ht="16">
       <c r="A49" s="10"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
+      <c r="B49" s="27">
+        <f>INDEX(vMixConfig!B:B,MATCH(F49,vMixConfig!$E:$E,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="35"/>
+      <c r="F49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" s="27" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH(F49,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H49" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
       <c r="N49" s="22"/>
     </row>
     <row r="50" spans="1:14" ht="16">
       <c r="A50" s="10"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
+      <c r="B50" s="27">
+        <f>INDEX(vMixConfig!B:B,MATCH(F50,vMixConfig!$E:$E,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="27" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH(F50,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H50" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
       <c r="N50" s="22"/>
     </row>
     <row r="51" spans="1:14" ht="16">
       <c r="A51" s="10"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
+      <c r="B51" s="27">
+        <f>INDEX(vMixConfig!B:B,MATCH(F51,vMixConfig!$E:$E,0))</f>
+        <v>7</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="35"/>
+      <c r="F51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G51" s="27" t="str">
+        <f>INDEX(vMixConfig!C:C,MATCH(F51,vMixConfig!$E:$E,0))</f>
+        <v>Virtual</v>
+      </c>
+      <c r="H51" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
       <c r="N51" s="22"/>
     </row>
     <row r="52" spans="1:14" ht="16">
@@ -3152,6 +3212,9 @@
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
@@ -3159,13 +3222,74 @@
       <c r="M57" s="24"/>
       <c r="N57" s="22"/>
     </row>
+    <row r="58" spans="1:14" ht="16">
+      <c r="A58" s="10"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="22"/>
+    </row>
+    <row r="59" spans="1:14" ht="16">
+      <c r="A59" s="10"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="22"/>
+    </row>
+    <row r="60" spans="1:14" ht="16">
+      <c r="A60" s="10"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="22"/>
+    </row>
+    <row r="61" spans="1:14" ht="16">
+      <c r="A61" s="10"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F46">
+  <conditionalFormatting sqref="F2:F50">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="1 ">
       <formula>LEFT((F2),LEN("1 "))=("1 ")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F46">
+  <conditionalFormatting sqref="F2:F50">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="2 ">
       <formula>LEFT((F2),LEN("2 "))=("2 ")</formula>
     </cfRule>
@@ -3185,7 +3309,7 @@
           <x14:formula1>
             <xm:f>vMixConfig!$T:$T</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F47</xm:sqref>
+          <xm:sqref>F2:F51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3197,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2EE200-2F6B-A74A-A266-8BF3F2F1ADCB}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView topLeftCell="A43" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3856,8 +3980,8 @@
       <c r="A12" t="s">
         <v>125</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" s="31">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>103</v>
@@ -3913,8 +4037,8 @@
       <c r="A13" t="s">
         <v>127</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" s="31">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -3946,8 +4070,8 @@
       <c r="A14" t="s">
         <v>130</v>
       </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="B14" s="31">
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>131</v>
@@ -3979,8 +4103,8 @@
       <c r="A15" t="s">
         <v>135</v>
       </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="B15" s="31">
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>131</v>
@@ -4012,8 +4136,8 @@
       <c r="A16" t="s">
         <v>138</v>
       </c>
-      <c r="B16">
-        <v>15</v>
+      <c r="B16" s="31">
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>131</v>
@@ -4045,8 +4169,8 @@
       <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" s="31">
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>131</v>
@@ -4078,8 +4202,8 @@
       <c r="A18" t="s">
         <v>144</v>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" s="31">
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -4111,8 +4235,8 @@
       <c r="A19" t="s">
         <v>147</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" s="31">
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>131</v>
@@ -4144,8 +4268,8 @@
       <c r="A20" t="s">
         <v>150</v>
       </c>
-      <c r="B20">
-        <v>19</v>
+      <c r="B20" s="31">
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>131</v>
@@ -4177,8 +4301,8 @@
       <c r="A21" t="s">
         <v>152</v>
       </c>
-      <c r="B21">
-        <v>20</v>
+      <c r="B21" s="31">
+        <v>10</v>
       </c>
       <c r="C21" t="s">
         <v>131</v>
@@ -4210,8 +4334,8 @@
       <c r="A22" t="s">
         <v>155</v>
       </c>
-      <c r="B22">
-        <v>21</v>
+      <c r="B22" s="31">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>131</v>
@@ -4243,8 +4367,8 @@
       <c r="A23" t="s">
         <v>157</v>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" s="31">
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>158</v>
@@ -4276,8 +4400,8 @@
       <c r="A24" t="s">
         <v>160</v>
       </c>
-      <c r="B24">
-        <v>23</v>
+      <c r="B24" s="31">
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>131</v>
@@ -4309,8 +4433,8 @@
       <c r="A25" t="s">
         <v>163</v>
       </c>
-      <c r="B25">
-        <v>24</v>
+      <c r="B25" s="31">
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
@@ -4342,8 +4466,8 @@
       <c r="A26" t="s">
         <v>165</v>
       </c>
-      <c r="B26">
-        <v>25</v>
+      <c r="B26" s="31">
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>131</v>
@@ -4375,8 +4499,8 @@
       <c r="A27" t="s">
         <v>168</v>
       </c>
-      <c r="B27">
-        <v>26</v>
+      <c r="B27" s="31">
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -4408,8 +4532,8 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" s="31">
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -4441,8 +4565,8 @@
       <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="B29">
-        <v>28</v>
+      <c r="B29" s="31">
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
@@ -4474,8 +4598,8 @@
       <c r="A30" t="s">
         <v>176</v>
       </c>
-      <c r="B30">
-        <v>29</v>
+      <c r="B30" s="31">
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>131</v>
@@ -4507,8 +4631,8 @@
       <c r="A31" t="s">
         <v>179</v>
       </c>
-      <c r="B31">
-        <v>30</v>
+      <c r="B31" s="31">
+        <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
@@ -4540,8 +4664,8 @@
       <c r="A32" t="s">
         <v>182</v>
       </c>
-      <c r="B32">
-        <v>31</v>
+      <c r="B32" s="31">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
@@ -4573,8 +4697,8 @@
       <c r="A33" t="s">
         <v>185</v>
       </c>
-      <c r="B33">
-        <v>32</v>
+      <c r="B33" s="31">
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>131</v>
@@ -4606,8 +4730,8 @@
       <c r="A34" t="s">
         <v>188</v>
       </c>
-      <c r="B34">
-        <v>33</v>
+      <c r="B34" s="31">
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>131</v>
@@ -4639,8 +4763,8 @@
       <c r="A35" t="s">
         <v>190</v>
       </c>
-      <c r="B35">
-        <v>34</v>
+      <c r="B35" s="31">
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>131</v>
@@ -4672,8 +4796,8 @@
       <c r="A36" t="s">
         <v>192</v>
       </c>
-      <c r="B36">
-        <v>35</v>
+      <c r="B36" s="31">
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -4705,8 +4829,8 @@
       <c r="A37" t="s">
         <v>194</v>
       </c>
-      <c r="B37">
-        <v>36</v>
+      <c r="B37" s="31">
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>195</v>
@@ -4741,8 +4865,8 @@
       <c r="A38" t="s">
         <v>197</v>
       </c>
-      <c r="B38">
-        <v>37</v>
+      <c r="B38" s="31">
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>131</v>
@@ -4774,8 +4898,8 @@
       <c r="A39" t="s">
         <v>200</v>
       </c>
-      <c r="B39">
-        <v>38</v>
+      <c r="B39" s="31">
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>201</v>
@@ -4810,8 +4934,8 @@
       <c r="A40" t="s">
         <v>204</v>
       </c>
-      <c r="B40">
-        <v>39</v>
+      <c r="B40" s="31">
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -4867,8 +4991,8 @@
       <c r="A41" t="s">
         <v>207</v>
       </c>
-      <c r="B41">
-        <v>40</v>
+      <c r="B41" s="31">
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>195</v>
@@ -4903,8 +5027,8 @@
       <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="B42">
-        <v>41</v>
+      <c r="B42" s="31">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>210</v>
@@ -4935,8 +5059,8 @@
       <c r="A43" t="s">
         <v>213</v>
       </c>
-      <c r="B43">
-        <v>42</v>
+      <c r="B43" s="31">
+        <v>2</v>
       </c>
       <c r="C43" t="s">
         <v>210</v>
@@ -4967,8 +5091,8 @@
       <c r="A44" t="s">
         <v>216</v>
       </c>
-      <c r="B44">
-        <v>43</v>
+      <c r="B44" s="31">
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>158</v>
@@ -4996,8 +5120,8 @@
       <c r="A45" t="s">
         <v>218</v>
       </c>
-      <c r="B45">
-        <v>44</v>
+      <c r="B45" s="31">
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>195</v>
@@ -5028,8 +5152,8 @@
       <c r="A46" t="s">
         <v>219</v>
       </c>
-      <c r="B46">
-        <v>45</v>
+      <c r="B46" s="31">
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>210</v>
@@ -5060,8 +5184,8 @@
       <c r="A47" t="s">
         <v>222</v>
       </c>
-      <c r="B47">
-        <v>46</v>
+      <c r="B47" s="31">
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>223</v>
@@ -5092,8 +5216,8 @@
       <c r="A48" t="s">
         <v>225</v>
       </c>
-      <c r="B48">
-        <v>47</v>
+      <c r="B48" s="31">
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>226</v>
@@ -5121,8 +5245,8 @@
       <c r="A49" t="s">
         <v>229</v>
       </c>
-      <c r="B49">
-        <v>48</v>
+      <c r="B49" s="31">
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>210</v>
@@ -5153,8 +5277,8 @@
       <c r="A50" t="s">
         <v>232</v>
       </c>
-      <c r="B50">
-        <v>49</v>
+      <c r="B50" s="31">
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>210</v>
@@ -5185,8 +5309,8 @@
       <c r="A51" t="s">
         <v>235</v>
       </c>
-      <c r="B51">
-        <v>50</v>
+      <c r="B51" s="31">
+        <v>10</v>
       </c>
       <c r="C51" t="s">
         <v>210</v>
@@ -5218,7 +5342,7 @@
         <v>238</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>239</v>
